--- a/kickstarter(total)/1cover&2advertising_page.xlsx
+++ b/kickstarter(total)/1cover&2advertising_page.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-Makayla\600_Engineering\630_Artificial_Intelligence\636_Capstone\Git-Capstone-Kickstarter(edit)\kickstarter(total)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65ED1E-497D-4CE3-B693-DDBAB05FED18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,12 +27,129 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>recordid</t>
+  </si>
+  <si>
+    <t>&lt;fullpath&gt;</t>
+  </si>
+  <si>
+    <t>&lt;realpath&gt;</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>项目简介</t>
+  </si>
+  <si>
+    <t>介绍视频</t>
+  </si>
+  <si>
+    <t>介绍视频_video</t>
+  </si>
+  <si>
+    <t>介绍视频_video_src</t>
+  </si>
+  <si>
+    <t>已筹金额</t>
+  </si>
+  <si>
+    <t>目标金额</t>
+  </si>
+  <si>
+    <t>支持者人数</t>
+  </si>
+  <si>
+    <t>剩余时间</t>
+  </si>
+  <si>
+    <t>宣传活动页文字</t>
+  </si>
+  <si>
+    <t>成功项目主页URL</t>
+  </si>
+  <si>
+    <t>cbe3892bec55813a8ec7cf93bbd3b497</t>
+  </si>
+  <si>
+    <t>"TRASHGUARDS" A rash guard made from recycled bottles.</t>
+  </si>
+  <si>
+    <t>An athletic "rash guard" made from recycled bottles.</t>
+  </si>
+  <si>
+    <t>https://v2.kickstarter.com/1671011576-IO0LTrEHqfZStuInWzC6oKgiqgQgetLmDykq2tk4yzY%3D/projects/4294830/video-1144942-h264_high.mp4</t>
+  </si>
+  <si>
+    <t>PageContentDir\2131107_1672056347/1672056348740_video-1144942-h264_high.mp4</t>
+  </si>
+  <si>
+    <t>https://v2.kickstarter.com/1672056338-m7FU8VxgQwKiPBFW5V5tfCmOOeb%2BBWrHFJ0WvUj08iM%3D/projects/4294830/video-1144942-h264_high.mp4</t>
+  </si>
+  <si>
+    <t>US$ 51</t>
+  </si>
+  <si>
+    <t>US$  5,143</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>StoryHello,
+My name is Jayson and I am one of the 3 million estimated jiu jitsu practitioners worldwide. Martial arts, particularly grappling sports such as jiu jitsu and wrestling, are my passion. I've seen firsthand how jiu jitsu can change lives through giving people an outlet for mentally engaging physical activity, the camaraderie and support system that comes with being a part of a team, and through being able to set quantifiable goals of achievement in progressing through the belt system. 
+Grapplers often wear what's known as a "rash guard," a tight fitting compression shirt usually comprised of lycra or polyester to protect from scrapes, skin infection, and to reduce friction.  I've started one rash guard project before, but recently, my friends and I have been brainstorming ways that we could do something meaningful while also making sharp looking rash guards that people love to wear. I found a factory that is willing to produce rash guards made from recycled lycra from plastic bottles destined for our oceans or landfills. My closest friends/training partners and I conferred regarding what the best name for a brand that provides rash guards made from recyclables would be, thus the idea for "Trashguards" was born.  Trashguards will be made and shipped using entirely recycled and sustainable materials.
+Another Rash Guard Project of Mine in 2021
+I've already found a factory that can supply the rash guards and have the designs made. At this point, I am just asking for support in helping bring the project alive - having the rash guards put into production and shipped to our storefront in Johnson City. If the project is successfully funded, I could have the site fully functioning and ready to ship the rash guards within a month.  
+I care about this project because the jiu jitsu apparel market is massive and growing larger by the day, yet there is nobody making a sustainable line from responsibly sourced and recycled products. This could start a trend within the market that leads towards greater sustainability. Every meter of fabric used in this project eliminates 5-7 plastic bottles that would be otherwise bound for our oceans, forests, or landfills. 
+I am fully committed to making this project a reality, and I thank you for your support.
+JaysonProject budgetMaking$3,680Production $3,500Prototyping $180Taxes &amp; Fees$940Margin of error$420Kickstarter fee$260Payment processing fee$260Fulfilling$523Shipping$500Packaging$23Multiple/Other$0Last updated January 10, 2022This is a projected budget provided by the creator and may be subject to change.Risks and challengesThe rash guard market is slightly congested. There are many different firms making rash guards, with a few firms comprising most of the market. However, it is not an exclusive product. People often need and regularly wear more than one. Also, it appears that there is no other brand that exclusively specializes in rash guards from recycled materials, so this particular niche market is wide open.Learn about accountability on KickstarterEnvironmental commitmentsVisit our Environmental Resources Center to learn how Kickstarter encourages sustainable practices.Long-lasting designThe factory that will make the recycled rash guards has a long standing history of making quality long lasting martial arts gear and apparel and has a history of quality over several years.Reusability and recyclabilityEvery meter of fabric used in these rash guards removes 5-7 plastic bottles that were formerly bound for oceans, forests, or landfills.Sustainable materialsThe rash guards will be made from RPETs derived from recycled plastic bottles. Every meter of fabric used in the production removes 5-7 plastic bottles formerly destined for oceans, forests, or landfills. 
+The will be minimal packaging, with the individual rash guards being fulfilled in 100% recycled eco-friendly poly mailers.Sustainable DistributionThe individual rash guards will be fulfilled in 100% recycled eco-friendly poly mailers.Questions about this project? Check out the FAQReport this project to Kickstarter</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>https://www.kickstarter.com/projects/trashguards/trashguards-a-rash-guard-made-from-recycled-bottles?ref=discovery&amp;term=trash%20recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +171,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +477,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="33.109375" customWidth="1"/>
+    <col min="9" max="9" width="101.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>461</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:P2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{ED21C3EC-6793-415A-A7BB-AD8DBD259805}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>